--- a/Training/moving/mountain to toe touch/1-split.xlsx
+++ b/Training/moving/mountain to toe touch/1-split.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6430218289e9316d/Documents/GitHub/UHF-RFID/Training/moving/mountain to toe touch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="8_{7B385A02-2F62-431B-A6FE-B98C77878F70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B5C46B2B-5AD7-40D3-A943-D2C21F9DA1C6}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="8_{7B385A02-2F62-431B-A6FE-B98C77878F70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DC1E9434-52F5-43D6-9C5E-1FB4521EE8E2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -709,6 +709,29 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Warrior</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> to Mountain RSSI: Run 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1610,10 +1633,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$C$1:$C$132</c:f>
+              <c:f>Sheet3!$C:$C</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="132"/>
+                <c:ptCount val="1048576"/>
                 <c:pt idx="0">
                   <c:v>-57</c:v>
                 </c:pt>
@@ -2009,6 +2032,444 @@
                 </c:pt>
                 <c:pt idx="131">
                   <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>-57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2321,10 +2782,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$C$1:$C$198</c:f>
+              <c:f>Sheet2!$C:$C</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="198"/>
+                <c:ptCount val="1048576"/>
                 <c:pt idx="0">
                   <c:v>-58</c:v>
                 </c:pt>
@@ -2600,6 +3061,15 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-57.576086956521742</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.69903694587348586</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2945,10 +3415,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$1:$C$50</c:f>
+              <c:f>Sheet1!$C:$C</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="1048576"/>
                 <c:pt idx="0">
                   <c:v>-55</c:v>
                 </c:pt>
@@ -3098,6 +3568,165 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-59</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3106,2496 +3735,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000010-4DD0-4B4D-9BBF-9D10164AD156}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet4!$A:$A</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm:ss.00</c:formatCode>
-                <c:ptCount val="1048576"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet4!$C$1:$C$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-4DD0-4B4D-9BBF-9D10164AD156}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>e2001d8712461320db93</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet3!$A:$A</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm:ss.00</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="0">
-                  <c:v>44277.647446689814</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44277.647447800926</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44277.647447986114</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44277.647448356482</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44277.647449398151</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44277.647450046294</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44277.647450787037</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44277.647451620367</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44277.647452546298</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44277.64745365741</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44277.64745449074</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44277.647455046295</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44277.647455787039</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44277.647456157407</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44277.647456527775</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44277.64745689815</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44277.647457361112</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44277.647457916668</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44277.647458194442</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44277.647459027779</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44277.647459409724</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44277.64746015046</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44277.647460335647</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44277.647461539353</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44277.64746172454</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44277.647462650464</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44277.647462928238</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44277.647463483794</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44277.647464594906</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44277.647465243055</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44277.647465983799</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44277.647466354167</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44277.64746709491</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44277.64746728009</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44277.647468113428</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44277.647469502313</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44277.647470428237</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>44277.647471354168</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>44277.647472002318</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44277.64747265046</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44277.647473206016</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44277.647474131947</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44277.647475057871</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44277.647476261576</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44277.647477199076</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44277.64747747685</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44277.647478032406</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44277.647479050924</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44277.647479699073</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44277.647480254629</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44277.647481458334</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>44277.647481736109</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>44277.64748266204</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44277.647483773151</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>44277.647484421293</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>44277.647485069443</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>44277.647485810186</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>44277.647486921298</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>44277.647487476854</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>44277.647488310184</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>44277.647489143521</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>44277.647489976851</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>44277.647490162039</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>44277.647491180556</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>44277.647491550924</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>44277.64749210648</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>44277.647493124998</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>44277.647493402779</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>44277.647494606485</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>44277.647495069446</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>44277.647495439815</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>44277.64749599537</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>44277.6474968287</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>44277.647497199076</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>44277.647497662037</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>44277.647498402781</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>44277.647499143517</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>44277.647499976854</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>44277.64750053241</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>44277.647501550928</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>44277.647501736108</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>44277.647502569445</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>44277.647503032407</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>44277.647503773151</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>44277.647504328706</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>44277.647505439818</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>44277.647505810186</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>44277.647506273148</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>44277.64750673611</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>44277.647507476853</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>44277.647508125003</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>44277.647508773145</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>44277.64750979167</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>44277.647510439812</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>44277.647511365743</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>44277.647512199073</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>44277.647512939817</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>44277.647513402779</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>44277.647513587966</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>44277.647514421296</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>44277.64751516204</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>44277.647515625002</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>44277.647516087964</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>44277.647516828707</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>44277.647517476849</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>44277.647518032405</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>44277.647518773148</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>44277.647519606478</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>44277.647520625003</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>44277.647521087965</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>44277.647521550927</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>44277.647522569445</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>44277.647522939813</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>44277.647523587962</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>44277.647524236112</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>44277.647524791668</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>44277.64752525463</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>44277.647526365741</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>44277.647526736109</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>44277.647527384259</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>44277.647527939815</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>44277.647528402777</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>44277.647528877314</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>44277.647529247683</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>44277.647529618058</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>44277.64753008102</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>44277.647531099537</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>44277.647531840281</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>44277.647532118055</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>44277.647532210649</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>44277.647532581017</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>44277.647532951392</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>44277.64753332176</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>44277.647533692128</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>44277.647534062497</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>44277.647534525466</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>44277.647534895834</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>44277.647535266202</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>44277.647535636577</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>44277.647536006945</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>44277.64753628472</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>44277.647537025463</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>44277.647537395831</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>44277.647537766206</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>44277.647538321762</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>44277.64753869213</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>44277.647539247686</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>44277.647539618054</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>44277.647539988429</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>44277.647540358797</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>44277.647540636572</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>44277.647541006947</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>44277.647541377315</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>44277.647541747683</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>44277.647542118058</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>44277.647542488427</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>44277.647542858795</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>44277.64754322917</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>44277.64754341435</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>44277.647543784726</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>44277.647544247688</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>44277.647544618056</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>44277.647544988424</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>44277.647545358799</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>44277.647545729167</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>44277.647546099535</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>44277.647546469911</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>44277.647546840279</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>44277.647547210647</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>44277.647547673609</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>44277.647548043984</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>44277.647548414352</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>44277.64754878472</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>44277.647549155095</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>44277.647549525464</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>44277.647549895832</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>44277.647550358794</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>44277.647550729169</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>44277.647551099537</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>44277.647551469905</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>44277.64755184028</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>44277.647552118055</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>44277.647552488423</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>44277.647552858798</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>44277.647553229166</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>44277.647553599534</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>44277.647553969909</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>44277.647554432871</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>44277.647554803239</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>44277.647554988427</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>44277.647555266201</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>44277.647555729163</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>44277.647556099539</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>44277.647556469907</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>44277.647556840275</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>44277.64755721065</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>44277.647557581018</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>44277.647557951386</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>44277.647558321762</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>44277.64755869213</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>44277.647559062498</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>44277.647559340279</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>44277.647559710647</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>44277.647560081015</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>44277.647560451391</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>44277.647560821759</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>44277.647561192127</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>44277.647561562502</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>44277.647562025464</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>44277.647562395832</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>44277.6475627662</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>44277.647563136576</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>44277.647563506944</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>44277.647563969906</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>44277.647564340281</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>44277.647564710649</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>44277.647565081017</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>44277.647565451392</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>44277.647565821761</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>44277.647566284722</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>44277.64756646991</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>44277.647566840278</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>44277.647567210646</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>44277.647567581022</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>44277.64756795139</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>44277.647568321758</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>44277.647568692133</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>44277.647569062501</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>44277.647569432869</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>44277.647569803237</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>44277.647570266206</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>44277.647570729168</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>44277.647571099536</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>44277.647571469905</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>44277.64757184028</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>44277.647572210648</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>44277.647572581016</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>44277.647572951391</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>44277.647573321759</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>44277.647573692127</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>44277.647574155089</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>44277.647574525465</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>44277.647574803239</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>44277.64757508102</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>44277.647575451389</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>44277.647575833333</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>44277.647576203701</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>44277.647576574076</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>44277.647576944444</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>44277.647577314812</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>44277.647577777781</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>44277.647577962962</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>44277.64757833333</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>44277.647578703705</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>44277.647579074073</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>44277.647579444441</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>44277.647579814817</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>44277.647580185185</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>44277.647580648147</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>44277.647581018522</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>44277.64758138889</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>44277.647581759258</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>44277.647582129626</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>44277.647582592595</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>44277.647582962963</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>44277.647583333332</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>44277.647583703707</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>44277.647584074075</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>44277.647584537037</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>44277.647584907405</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>44277.647585185186</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>44277.647585648148</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>44277.647585925923</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>44277.647586388892</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>44277.647586666666</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>44277.647587037034</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>44277.647587407409</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>44277.647587777778</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet3!$C$1:$C$132</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="132"/>
-                <c:pt idx="0">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-51</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-51</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-51</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-51</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-51</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-51</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-51</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>-51</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-51</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>-51</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>-53</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-4DD0-4B4D-9BBF-9D10164AD156}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>e2001d8712401320d4a0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$A:$A</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm:ss.00</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="0">
-                  <c:v>44277.647446226852</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44277.647446967596</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44277.647447430558</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44277.647448171294</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44277.647448657408</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44277.647449675926</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44277.647450324075</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44277.647451249999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44277.647451620367</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44277.647452175923</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44277.647452731479</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44277.647453472222</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44277.647454212965</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44277.647460057873</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44277.647460983797</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44277.647462187502</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44277.647463761576</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44277.647464317131</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44277.647465057868</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44277.647465798611</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44277.647467743052</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44277.647468483796</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44277.647469039352</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44277.647469780095</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44277.647471076387</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44277.647471724536</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44277.64747265046</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44277.647474131947</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44277.647475057871</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44277.64747570602</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44277.64747653935</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44277.647477106482</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44277.647478310188</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44277.647479236111</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44277.647480439817</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44277.647480995372</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44277.647481921296</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>44277.647483125002</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>44277.647483125002</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44277.647484143519</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44277.647485069443</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44277.647486180555</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44277.647486921298</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44277.647487662034</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44277.647488495371</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44277.647489143521</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44277.647490532407</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44277.647491736112</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44277.647493124998</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44277.647493865741</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44277.647497939812</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>44277.647498587961</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>44277.647498958337</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44277.647500162035</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>44277.647500902778</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>44277.647502384258</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>44277.647503217595</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>44277.647504050925</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>44277.647504884262</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>44277.647505532404</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>44277.647506458336</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>44277.647507106478</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>44277.647508587965</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>44277.647509236114</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>44277.647510069444</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>44277.647510625</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>44277.647511365743</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>44277.647512476855</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>44277.64751516204</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>44277.647518310187</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>44277.647518958336</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>44277.647519328704</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>44277.647520625003</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>44277.647521736108</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>44277.647522476851</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>44277.647523310188</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>44277.64752377315</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>44277.647524791668</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>44277.647525532404</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>44277.647526365741</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>44277.647526921297</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>44277.647527384259</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>44277.64752766204</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>44277.647528402777</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>44277.647529340276</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>44277.647529710652</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>44277.647530543982</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>44277.647530821756</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>44277.647531469906</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>44277.647536469907</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>44277.647536840275</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>44277.647539062498</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$C$1:$C$198</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="198"/>
-                <c:pt idx="0">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-59</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-59</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-59</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-58</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-4DD0-4B4D-9BBF-9D10164AD156}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>e2001d8712171320c120</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A:$A</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm:ss.00</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="0">
-                  <c:v>44277.647446041665</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44277.647446689814</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44277.647447708332</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44277.647448935182</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44277.647449212964</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44277.647450046294</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44277.647450787037</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44277.647451435187</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44277.647452268517</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44277.647453101854</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44277.647454027778</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44277.647454768521</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44277.647455694445</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44277.647456157407</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44277.647457361112</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44277.647457916668</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44277.647458472224</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44277.647458842592</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44277.647459594904</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44277.647460428241</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44277.647460983797</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44277.647461539353</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44277.647462002315</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44277.647462928238</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44277.647463298614</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44277.647464131944</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44277.647465243055</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44277.647465983799</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44277.647466539354</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44277.647467465278</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44277.647468483796</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44277.647469039352</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44277.647470520831</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44277.647470983793</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44277.647471539349</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44277.647473391204</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44277.647473483798</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>44277.647474594909</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>44277.647475520833</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44277.647476261576</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44277.647476828701</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44277.647477662038</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44277.647478402774</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44277.647478587962</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44277.647480717591</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44277.647481365741</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44277.647482106484</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44277.647483773151</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44277.647485810186</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44277.647486180555</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44277.647486550923</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>44277.647487199072</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>44277.647487939816</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44277.647489513889</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>44277.647490439813</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>44277.647491087962</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>44277.647492384262</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>44277.647492847223</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>44277.647493680553</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>44277.647494236109</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>44277.647494606485</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>44277.647494884259</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>44277.647496273152</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>44277.647496736114</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>44277.647497199076</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>44277.647497939812</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>44277.647498217593</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>44277.647499328705</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>44277.647499699073</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>44277.647500902778</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>44277.64750136574</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>44277.647501921296</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>44277.647502384258</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>44277.647503125001</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>44277.647503587963</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>44277.647504606481</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>44277.647505069443</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>44277.647506180554</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>44277.647506921297</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>44277.647507662034</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>44277.647508310183</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>44277.647509050927</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>44277.64750979167</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>44277.647510810188</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>44277.647511550924</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>44277.647511921299</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>44277.647512754629</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>44277.647513402779</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>44277.647513865741</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>44277.647514328703</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>44277.647516273151</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>44277.647516643519</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>44277.647517754631</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>44277.647518310187</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>44277.647518958336</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>44277.647519699072</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>44277.647520069448</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>44277.647521550927</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>44277.647522199077</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>44277.647522847219</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>44277.6475244213</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>44277.647525069442</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>44277.647525810185</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$1:$C$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-55</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-4DD0-4B4D-9BBF-9D10164AD156}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5676,6 +3815,8 @@
         <c:axId val="649973599"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="-50"/>
+          <c:min val="-65"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5735,6 +3876,10 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -5772,6 +3917,24 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Warrior to Mountain Phase: Run 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -5800,10 +3963,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet4!$D$1:$D$69</c:f>
+              <c:f>Sheet4!$D:$D</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
+                <c:ptCount val="1048576"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6148,10 +4311,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$1:$D$50</c:f>
+              <c:f>Sheet1!$D:$D</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="1048576"/>
                 <c:pt idx="0">
                   <c:v>174</c:v>
                 </c:pt>
@@ -6300,6 +4463,165 @@
                   <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>171</c:v>
                 </c:pt>
               </c:numCache>
@@ -6313,68 +4635,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet4!$A:$A</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm:ss.00</c:formatCode>
-                <c:ptCount val="1048576"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet4!$D$1:$D$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-BD01-4F5C-8056-3BA37DC19ECF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet3!$B$1</c:f>
@@ -7255,10 +5517,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$D$1:$D$132</c:f>
+              <c:f>Sheet3!$D:$D</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="132"/>
+                <c:ptCount val="1048576"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -7654,6 +5916,444 @@
                 </c:pt>
                 <c:pt idx="131">
                   <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7667,7 +6367,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$B$1</c:f>
@@ -7990,10 +6690,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$1:$D$198</c:f>
+              <c:f>Sheet2!$D:$D</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="198"/>
+                <c:ptCount val="1048576"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -8269,6 +6969,15 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>166.63043478260869</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>30.859382384091393</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8357,6 +7066,8 @@
         <c:axId val="649973599"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="180"/>
+          <c:min val="160"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8416,6 +7127,10 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -8445,14 +7160,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>90874</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>203047</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8479,16 +7194,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8815,11 +7530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="AF55" sqref="AF55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8841,7 +7555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44277.647446041665</v>
       </c>
@@ -8855,7 +7569,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>44277.647446226852</v>
       </c>
@@ -8883,7 +7597,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>44277.647446689814</v>
       </c>
@@ -8897,7 +7611,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>44277.647446967596</v>
       </c>
@@ -8911,7 +7625,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>44277.647447430558</v>
       </c>
@@ -8925,7 +7639,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>44277.647447708332</v>
       </c>
@@ -8967,7 +7681,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>44277.647448171294</v>
       </c>
@@ -8995,7 +7709,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>44277.647448657408</v>
       </c>
@@ -9009,7 +7723,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>44277.647448935182</v>
       </c>
@@ -9023,7 +7737,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>44277.647449212964</v>
       </c>
@@ -9051,7 +7765,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>44277.647449675926</v>
       </c>
@@ -9065,7 +7779,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>44277.647450046294</v>
       </c>
@@ -9093,7 +7807,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>44277.647450324075</v>
       </c>
@@ -9107,7 +7821,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>44277.647450787037</v>
       </c>
@@ -9135,7 +7849,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>44277.647451249999</v>
       </c>
@@ -9149,7 +7863,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>44277.647451249999</v>
       </c>
@@ -9159,7 +7873,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>44277.647451435187</v>
       </c>
@@ -9173,7 +7887,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>44277.647451620367</v>
       </c>
@@ -9201,7 +7915,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>44277.647452175923</v>
       </c>
@@ -9215,7 +7929,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>44277.647452268517</v>
       </c>
@@ -9229,7 +7943,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>44277.647452453704</v>
       </c>
@@ -9253,7 +7967,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>44277.647452731479</v>
       </c>
@@ -9267,7 +7981,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>44277.647453101854</v>
       </c>
@@ -9281,7 +7995,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>44277.647453472222</v>
       </c>
@@ -9309,7 +8023,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>44277.647454027778</v>
       </c>
@@ -9323,7 +8037,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>44277.647454212965</v>
       </c>
@@ -9351,7 +8065,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>44277.647454768521</v>
       </c>
@@ -9379,7 +8093,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>44277.647455694445</v>
       </c>
@@ -9407,7 +8121,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>44277.647456157407</v>
       </c>
@@ -9463,7 +8177,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>44277.647457361112</v>
       </c>
@@ -9491,7 +8205,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>44277.647457916668</v>
       </c>
@@ -9533,7 +8247,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>44277.647458472224</v>
       </c>
@@ -9547,7 +8261,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>44277.647458842592</v>
       </c>
@@ -9589,7 +8303,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>44277.647459594904</v>
       </c>
@@ -9603,7 +8317,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>44277.647460057873</v>
       </c>
@@ -9645,7 +8359,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>44277.647460428241</v>
       </c>
@@ -9659,7 +8373,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>44277.647460983797</v>
       </c>
@@ -9673,7 +8387,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>44277.647460983797</v>
       </c>
@@ -9687,7 +8401,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>44277.647461261571</v>
       </c>
@@ -9711,7 +8425,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>44277.647461539353</v>
       </c>
@@ -9739,7 +8453,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>44277.647462002315</v>
       </c>
@@ -9753,7 +8467,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>44277.647462187502</v>
       </c>
@@ -9781,7 +8495,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>44277.647462650464</v>
       </c>
@@ -9805,7 +8519,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>44277.647462928238</v>
       </c>
@@ -9819,7 +8533,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>44277.647463298614</v>
       </c>
@@ -9847,7 +8561,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>44277.647463761576</v>
       </c>
@@ -9861,7 +8575,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>44277.647464131944</v>
       </c>
@@ -9875,7 +8589,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>44277.647464317131</v>
       </c>
@@ -9903,7 +8617,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>44277.647465057868</v>
       </c>
@@ -9931,7 +8645,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>44277.647465243055</v>
       </c>
@@ -9945,7 +8659,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>44277.647465798611</v>
       </c>
@@ -9973,7 +8687,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>44277.647465983799</v>
       </c>
@@ -10001,7 +8715,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>44277.647466539354</v>
       </c>
@@ -10043,7 +8757,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>44277.647467465278</v>
       </c>
@@ -10057,7 +8771,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>44277.647467743052</v>
       </c>
@@ -10085,7 +8799,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>44277.647468483796</v>
       </c>
@@ -10099,7 +8813,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>44277.647468483796</v>
       </c>
@@ -10113,7 +8827,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>44277.647469039352</v>
       </c>
@@ -10127,7 +8841,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>44277.647469039352</v>
       </c>
@@ -10141,7 +8855,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>44277.64746940972</v>
       </c>
@@ -10165,7 +8879,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>44277.647469780095</v>
       </c>
@@ -10193,7 +8907,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>44277.647470520831</v>
       </c>
@@ -10207,7 +8921,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>44277.647470613425</v>
       </c>
@@ -10217,7 +8931,7 @@
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
     </row>
-    <row r="102" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>44277.647470983793</v>
       </c>
@@ -10231,7 +8945,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>44277.647471076387</v>
       </c>
@@ -10259,7 +8973,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>44277.647471539349</v>
       </c>
@@ -10273,7 +8987,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>44277.647471724536</v>
       </c>
@@ -10315,7 +9029,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>44277.64747265046</v>
       </c>
@@ -10329,7 +9043,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>44277.647473020836</v>
       </c>
@@ -10353,7 +9067,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>44277.647473391204</v>
       </c>
@@ -10367,7 +9081,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>44277.647473483798</v>
       </c>
@@ -10395,7 +9109,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>44277.647474131947</v>
       </c>
@@ -10409,7 +9123,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>44277.647474409721</v>
       </c>
@@ -10419,7 +9133,7 @@
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
     </row>
-    <row r="117" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>44277.647474594909</v>
       </c>
@@ -10433,7 +9147,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>44277.647475057871</v>
       </c>
@@ -10461,7 +9175,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>44277.647475335645</v>
       </c>
@@ -10471,7 +9185,7 @@
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
     </row>
-    <row r="121" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>44277.647475520833</v>
       </c>
@@ -10485,7 +9199,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>44277.64747570602</v>
       </c>
@@ -10513,7 +9227,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>44277.647476261576</v>
       </c>
@@ -10527,7 +9241,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>44277.64747653935</v>
       </c>
@@ -10541,7 +9255,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>44277.647476828701</v>
       </c>
@@ -10555,7 +9269,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>44277.647477106482</v>
       </c>
@@ -10597,7 +9311,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>44277.647477662038</v>
       </c>
@@ -10625,7 +9339,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>44277.647478310188</v>
       </c>
@@ -10639,7 +9353,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>44277.647478402774</v>
       </c>
@@ -10653,7 +9367,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>44277.647478587962</v>
       </c>
@@ -10681,7 +9395,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>44277.647479236111</v>
       </c>
@@ -10695,7 +9409,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>44277.647479421299</v>
       </c>
@@ -10733,7 +9447,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>44277.647480439817</v>
       </c>
@@ -10747,7 +9461,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>44277.647480717591</v>
       </c>
@@ -10761,7 +9475,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>44277.647480995372</v>
       </c>
@@ -10775,7 +9489,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>44277.647481365741</v>
       </c>
@@ -10817,7 +9531,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>44277.647481921296</v>
       </c>
@@ -10831,7 +9545,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>44277.647482106484</v>
       </c>
@@ -10859,7 +9573,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>44277.647483125002</v>
       </c>
@@ -10873,7 +9587,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>44277.647483125002</v>
       </c>
@@ -10887,7 +9601,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>44277.647483310182</v>
       </c>
@@ -10897,7 +9611,7 @@
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
     </row>
-    <row r="152" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>44277.647483773151</v>
       </c>
@@ -10925,7 +9639,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>44277.647483958332</v>
       </c>
@@ -10935,7 +9649,7 @@
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
     </row>
-    <row r="155" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>44277.647484143519</v>
       </c>
@@ -10977,7 +9691,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>44277.647485069443</v>
       </c>
@@ -10991,7 +9705,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>44277.647485532405</v>
       </c>
@@ -11001,7 +9715,7 @@
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
     </row>
-    <row r="160" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>44277.647485810186</v>
       </c>
@@ -11015,7 +9729,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>44277.647485810186</v>
       </c>
@@ -11039,7 +9753,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>44277.647486180555</v>
       </c>
@@ -11053,7 +9767,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>44277.647486180555</v>
       </c>
@@ -11067,7 +9781,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>44277.647486550923</v>
       </c>
@@ -11095,7 +9809,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>44277.647486921298</v>
       </c>
@@ -11109,7 +9823,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>44277.647487199072</v>
       </c>
@@ -11137,7 +9851,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>44277.647487662034</v>
       </c>
@@ -11151,7 +9865,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>44277.647487939816</v>
       </c>
@@ -11179,7 +9893,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>44277.647488495371</v>
       </c>
@@ -11193,7 +9907,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>44277.647489143521</v>
       </c>
@@ -11221,7 +9935,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>44277.647489421295</v>
       </c>
@@ -11231,7 +9945,7 @@
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
     </row>
-    <row r="177" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>44277.647489513889</v>
       </c>
@@ -11273,7 +9987,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>44277.647490439813</v>
       </c>
@@ -11287,7 +10001,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>44277.647490532407</v>
       </c>
@@ -11301,7 +10015,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>44277.647491087962</v>
       </c>
@@ -11329,7 +10043,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>44277.64749127315</v>
       </c>
@@ -11353,7 +10067,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>44277.647491736112</v>
       </c>
@@ -11381,7 +10095,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>44277.647492384262</v>
       </c>
@@ -11395,7 +10109,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>44277.647492847223</v>
       </c>
@@ -11423,7 +10137,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>44277.647493124998</v>
       </c>
@@ -11451,7 +10165,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>44277.647493680553</v>
       </c>
@@ -11465,7 +10179,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>44277.647493865741</v>
       </c>
@@ -11479,7 +10193,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>44277.647494236109</v>
       </c>
@@ -11493,7 +10207,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>44277.647494606485</v>
       </c>
@@ -11521,7 +10235,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>44277.647494884259</v>
       </c>
@@ -11577,7 +10291,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>44277.647496273152</v>
       </c>
@@ -11591,7 +10305,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>44277.647496736114</v>
       </c>
@@ -11619,7 +10333,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>44277.647497199076</v>
       </c>
@@ -11647,7 +10361,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>44277.647497384256</v>
       </c>
@@ -11671,7 +10385,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>44277.647497939812</v>
       </c>
@@ -11685,7 +10399,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>44277.647497939812</v>
       </c>
@@ -11699,7 +10413,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>44277.647498217593</v>
       </c>
@@ -11727,7 +10441,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>44277.647498587961</v>
       </c>
@@ -11741,7 +10455,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>44277.647498958337</v>
       </c>
@@ -11769,7 +10483,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>44277.647499328705</v>
       </c>
@@ -11783,7 +10497,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>44277.647499699073</v>
       </c>
@@ -11811,7 +10525,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>44277.647500162035</v>
       </c>
@@ -11839,7 +10553,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>44277.647500902778</v>
       </c>
@@ -11853,7 +10567,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>44277.647500902778</v>
       </c>
@@ -11867,7 +10581,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>44277.64750136574</v>
       </c>
@@ -11909,7 +10623,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>44277.647501921296</v>
       </c>
@@ -11923,7 +10637,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>44277.647502384258</v>
       </c>
@@ -11937,7 +10651,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>44277.647502384258</v>
       </c>
@@ -11979,7 +10693,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>44277.647503125001</v>
       </c>
@@ -11993,7 +10707,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>44277.647503217595</v>
       </c>
@@ -12007,7 +10721,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>44277.647503587963</v>
       </c>
@@ -12035,7 +10749,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>44277.647504050925</v>
       </c>
@@ -12063,7 +10777,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>44277.647504606481</v>
       </c>
@@ -12077,7 +10791,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>44277.647504884262</v>
       </c>
@@ -12091,7 +10805,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>44277.647505069443</v>
       </c>
@@ -12119,7 +10833,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>44277.647505532404</v>
       </c>
@@ -12147,7 +10861,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>44277.647506180554</v>
       </c>
@@ -12175,7 +10889,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>44277.647506458336</v>
       </c>
@@ -12203,7 +10917,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>44277.647506921297</v>
       </c>
@@ -12217,7 +10931,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>44277.647507106478</v>
       </c>
@@ -12245,7 +10959,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>44277.647507662034</v>
       </c>
@@ -12273,7 +10987,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>44277.647508310183</v>
       </c>
@@ -12287,7 +11001,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>44277.647508587965</v>
       </c>
@@ -12301,7 +11015,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>44277.647508587965</v>
       </c>
@@ -12325,7 +11039,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>44277.647509050927</v>
       </c>
@@ -12339,7 +11053,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>44277.647509236114</v>
       </c>
@@ -12353,7 +11067,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <v>44277.64750979167</v>
       </c>
@@ -12381,7 +11095,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <v>44277.647510069444</v>
       </c>
@@ -12409,7 +11123,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <v>44277.647510625</v>
       </c>
@@ -12423,7 +11137,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <v>44277.647510810188</v>
       </c>
@@ -12437,7 +11151,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <v>44277.647511365743</v>
       </c>
@@ -12465,7 +11179,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <v>44277.647511550924</v>
       </c>
@@ -12479,7 +11193,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <v>44277.647511921299</v>
       </c>
@@ -12507,7 +11221,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <v>44277.647512476855</v>
       </c>
@@ -12521,7 +11235,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <v>44277.647512754629</v>
       </c>
@@ -12549,7 +11263,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <v>44277.647513402779</v>
       </c>
@@ -12591,7 +11305,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>44277.647513865741</v>
       </c>
@@ -12605,7 +11319,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>44277.647514328703</v>
       </c>
@@ -12647,7 +11361,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <v>44277.64751516204</v>
       </c>
@@ -12661,7 +11375,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <v>44277.64751534722</v>
       </c>
@@ -12699,7 +11413,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <v>44277.647516273151</v>
       </c>
@@ -12713,7 +11427,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <v>44277.647516643519</v>
       </c>
@@ -12755,7 +11469,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <v>44277.647517754631</v>
       </c>
@@ -12769,7 +11483,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <v>44277.647517939811</v>
       </c>
@@ -12793,7 +11507,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
         <v>44277.647518310187</v>
       </c>
@@ -12807,7 +11521,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <v>44277.647518310187</v>
       </c>
@@ -12835,7 +11549,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <v>44277.647518958336</v>
       </c>
@@ -12849,7 +11563,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <v>44277.647518958336</v>
       </c>
@@ -12863,7 +11577,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
         <v>44277.647519328704</v>
       </c>
@@ -12891,7 +11605,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
         <v>44277.647519699072</v>
       </c>
@@ -12905,7 +11619,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <v>44277.647520069448</v>
       </c>
@@ -12919,7 +11633,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <v>44277.647520069448</v>
       </c>
@@ -12929,7 +11643,7 @@
       <c r="C299" s="6"/>
       <c r="D299" s="6"/>
     </row>
-    <row r="300" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
         <v>44277.647520625003</v>
       </c>
@@ -12957,7 +11671,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <v>44277.647520902778</v>
       </c>
@@ -12995,7 +11709,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
         <v>44277.647521550927</v>
       </c>
@@ -13009,7 +11723,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
         <v>44277.647521736108</v>
       </c>
@@ -13023,7 +11737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
         <v>44277.647522199077</v>
       </c>
@@ -13037,7 +11751,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
         <v>44277.647522476851</v>
       </c>
@@ -13065,7 +11779,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
         <v>44277.647522847219</v>
       </c>
@@ -13093,7 +11807,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
         <v>44277.647523310188</v>
       </c>
@@ -13121,7 +11835,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
         <v>44277.64752377315</v>
       </c>
@@ -13149,7 +11863,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
         <v>44277.6475244213</v>
       </c>
@@ -13177,7 +11891,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
         <v>44277.647524791668</v>
       </c>
@@ -13191,7 +11905,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
         <v>44277.647525069442</v>
       </c>
@@ -13219,7 +11933,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
         <v>44277.647525532404</v>
       </c>
@@ -13233,7 +11947,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
         <v>44277.647525810185</v>
       </c>
@@ -13247,7 +11961,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
         <v>44277.647526365741</v>
       </c>
@@ -13289,7 +12003,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
         <v>44277.647526921297</v>
       </c>
@@ -13303,7 +12017,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
         <v>44277.647527384259</v>
       </c>
@@ -13331,7 +12045,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
         <v>44277.64752766204</v>
       </c>
@@ -13373,7 +12087,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
         <v>44277.647528402777</v>
       </c>
@@ -13415,7 +12129,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
         <v>44277.647529340276</v>
       </c>
@@ -13443,7 +12157,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
         <v>44277.647529710652</v>
       </c>
@@ -13471,7 +12185,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
         <v>44277.647530543982</v>
       </c>
@@ -13485,7 +12199,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
         <v>44277.647530821756</v>
       </c>
@@ -13513,7 +12227,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
         <v>44277.647531469906</v>
       </c>
@@ -13541,7 +12255,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
         <v>44277.647531840281</v>
       </c>
@@ -13733,7 +12447,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
         <v>44277.647536469907</v>
       </c>
@@ -13747,7 +12461,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
         <v>44277.647536840275</v>
       </c>
@@ -13831,7 +12545,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
         <v>44277.647539062498</v>
       </c>
@@ -14013,7 +12727,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A378" s="4">
         <v>44277.64754322917</v>
       </c>
@@ -14457,7 +13171,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A410" s="4">
         <v>44277.647554803239</v>
       </c>
@@ -14901,7 +13615,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A442" s="4">
         <v>44277.647566284722</v>
       </c>
@@ -15345,7 +14059,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="474" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A474" s="4">
         <v>44277.647577777781</v>
       </c>
@@ -15734,18 +14448,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D501" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="e2001d8712461320db93"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D501" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH4]" sqref="D2:D500" xr:uid="{D97F7FE9-5D9B-4E40-90CA-C9EF41B2C787}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH3]" sqref="C2:C500" xr:uid="{2F4E65E3-999E-4BC9-8A28-9C0A2744B7B1}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH2]" sqref="B2:B500" xr:uid="{FAFF321B-30F7-4836-8647-9D3001277027}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH1]" sqref="A2:A500" xr:uid="{65CF8E72-4115-4BF7-B786-EDD0819FD501}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH4]" sqref="D2:D500" xr:uid="{E527AE31-05CB-4CB6-AC92-786362B9A99C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH3]" sqref="C2:C500" xr:uid="{E00F9E3C-BA5D-452F-9971-217A368C08A8}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH2]" sqref="B2:B500" xr:uid="{51F19EDA-9D18-4C2B-84F5-EE4472878304}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH1]" sqref="A2:A500" xr:uid="{AD6460D9-90B7-4049-AEDE-38B1A3AEC35C}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15754,105 +14462,129 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC26750B-BD47-411C-A0C4-877562E69E36}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="D77" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F1" t="e">
+        <f>AVERAGE(C:C)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G1" t="e">
+        <f>AVERAGE(D:D)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F2" t="e">
+        <f>STDEV(C:C)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G2" t="e">
+        <f>STDEV(D:D)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f>COUNT(C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>COUNT(D:D)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
@@ -16189,10 +14921,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G278"/>
+  <dimension ref="A1:G292"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection sqref="A1:D278"/>
+    <sheetView topLeftCell="A263" workbookViewId="0">
+      <selection activeCell="L283" sqref="L283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20113,12 +18845,96 @@
         <v>168</v>
       </c>
     </row>
+    <row r="279" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A279" s="4"/>
+      <c r="B279" s="5"/>
+      <c r="C279" s="6"/>
+      <c r="D279" s="6"/>
+    </row>
+    <row r="280" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A280" s="4"/>
+      <c r="B280" s="5"/>
+      <c r="C280" s="6"/>
+      <c r="D280" s="6"/>
+    </row>
+    <row r="281" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A281" s="4"/>
+      <c r="B281" s="5"/>
+      <c r="C281" s="6"/>
+      <c r="D281" s="6"/>
+    </row>
+    <row r="282" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A282" s="4"/>
+      <c r="B282" s="5"/>
+      <c r="C282" s="6"/>
+      <c r="D282" s="6"/>
+    </row>
+    <row r="283" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A283" s="4"/>
+      <c r="B283" s="5"/>
+      <c r="C283" s="6"/>
+      <c r="D283" s="6"/>
+    </row>
+    <row r="284" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A284" s="4"/>
+      <c r="B284" s="5"/>
+      <c r="C284" s="6"/>
+      <c r="D284" s="6"/>
+    </row>
+    <row r="285" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A285" s="4"/>
+      <c r="B285" s="5"/>
+      <c r="C285" s="6"/>
+      <c r="D285" s="6"/>
+    </row>
+    <row r="286" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A286" s="4"/>
+      <c r="B286" s="5"/>
+      <c r="C286" s="6"/>
+      <c r="D286" s="6"/>
+    </row>
+    <row r="287" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A287" s="4"/>
+      <c r="B287" s="5"/>
+      <c r="C287" s="6"/>
+      <c r="D287" s="6"/>
+    </row>
+    <row r="288" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A288" s="4"/>
+      <c r="B288" s="5"/>
+      <c r="C288" s="6"/>
+      <c r="D288" s="6"/>
+    </row>
+    <row r="289" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A289" s="4"/>
+      <c r="B289" s="5"/>
+      <c r="C289" s="6"/>
+      <c r="D289" s="6"/>
+    </row>
+    <row r="290" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A290" s="4"/>
+      <c r="B290" s="5"/>
+      <c r="C290" s="6"/>
+      <c r="D290" s="6"/>
+    </row>
+    <row r="291" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A291" s="4"/>
+      <c r="B291" s="5"/>
+      <c r="C291" s="6"/>
+      <c r="D291" s="6"/>
+    </row>
+    <row r="292" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A292" s="4"/>
+      <c r="B292" s="5"/>
+      <c r="C292" s="6"/>
+      <c r="D292" s="6"/>
+    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH1]" sqref="A1:A277" xr:uid="{A738B4EA-076B-40A1-A0D1-E4D42B34918D}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH2]" sqref="B1:B277" xr:uid="{F85FC7DB-D31B-4C88-AA1A-92C95EB3DED0}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH3]" sqref="C1:C277" xr:uid="{39357680-914D-49E5-8AE5-D2451C160F82}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH4]" sqref="D1:D277" xr:uid="{CF01AD0E-A081-4860-95D3-BA3FB369906E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH1]" sqref="A1:A277 A279:A292" xr:uid="{A738B4EA-076B-40A1-A0D1-E4D42B34918D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH2]" sqref="B1:B277 B279:B292" xr:uid="{F85FC7DB-D31B-4C88-AA1A-92C95EB3DED0}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH3]" sqref="C1:C277 C279:C292" xr:uid="{39357680-914D-49E5-8AE5-D2451C160F82}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH4]" sqref="D1:D277 D279:D292" xr:uid="{CF01AD0E-A081-4860-95D3-BA3FB369906E}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20128,7 +18944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection sqref="A1:D92"/>
     </sheetView>
   </sheetViews>
@@ -22125,10 +20941,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D103"/>
+      <selection sqref="A1:D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23707,12 +22523,168 @@
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
     </row>
+    <row r="122" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="4"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+    </row>
+    <row r="123" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="4"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+    </row>
+    <row r="124" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="4"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+    </row>
+    <row r="125" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A125" s="4"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+    </row>
+    <row r="126" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A126" s="4"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+    </row>
+    <row r="127" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="4"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+    </row>
+    <row r="128" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="4"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+    </row>
+    <row r="129" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="4"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+    </row>
+    <row r="130" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="4"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+    </row>
+    <row r="131" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="4"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+    </row>
+    <row r="132" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="4"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+    </row>
+    <row r="133" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="4"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+    </row>
+    <row r="134" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="4"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+    </row>
+    <row r="135" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="4"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+    </row>
+    <row r="136" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="4"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+    </row>
+    <row r="137" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="4"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+    </row>
+    <row r="138" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="4"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+    </row>
+    <row r="139" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="4"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+    </row>
+    <row r="140" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A140" s="4"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+    </row>
+    <row r="141" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A141" s="4"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+    </row>
+    <row r="142" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A142" s="4"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+    </row>
+    <row r="143" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="4"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+    </row>
+    <row r="144" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A144" s="4"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+    </row>
+    <row r="145" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A145" s="4"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+    </row>
+    <row r="146" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A146" s="4"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+    </row>
+    <row r="147" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A147" s="4"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH1]" sqref="A1:A121" xr:uid="{F00659E5-718B-4AA0-B6BD-F4AFBDF1995D}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH2]" sqref="B1:B121" xr:uid="{AC440729-ABF3-486D-98B9-AB69A179330A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH3]" sqref="C1:C121" xr:uid="{F6B3D386-5C64-473F-9260-1D128C877739}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH4]" sqref="D1:D121" xr:uid="{3C738301-7B46-40D3-9055-D17A8AA45AAA}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH1]" sqref="A1:A147" xr:uid="{F00659E5-718B-4AA0-B6BD-F4AFBDF1995D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH2]" sqref="B1:B147" xr:uid="{AC440729-ABF3-486D-98B9-AB69A179330A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH3]" sqref="C1:C147" xr:uid="{F6B3D386-5C64-473F-9260-1D128C877739}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH4]" sqref="D1:D147" xr:uid="{3C738301-7B46-40D3-9055-D17A8AA45AAA}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
